--- a/data/performance_sheets_option3_flatten/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3_flatten/window3/BA11 Overall Model Peformance Results.xlsx
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02039849665340829</v>
+        <v>0.01498967997238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09892334110560715</v>
+        <v>0.08685910869470639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1195522199899379</v>
+        <v>0.1129517174560936</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1428233057081662</v>
+        <v>0.1224323485537217</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.41440215628477</v>
+        <v>12.26223518112275</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02103539249734765</v>
+        <v>0.0149874086703139</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1002129988941046</v>
+        <v>0.0868411188918532</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1211025757763387</v>
+        <v>0.1129112822771712</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1450358317704547</v>
+        <v>0.1224230724590507</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>13.63498354970206</v>
+        <v>12.25950087296501</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1592,53 +1592,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.007892703149103999</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.0612079050013118</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.0840243863580893</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.08884088669697079</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>8.689542468665234</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.006108924945489766</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.05879255415939588</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.0765633552761376</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.07815961198400211</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>7.914757535713949</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.009996811831397804</v>
+        <v>0.0075940139214188</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.07870826852180735</v>
+        <v>0.0625924640951344</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.106591157577303</v>
+        <v>0.0871636907852389</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.09998405788623406</v>
+        <v>0.0871436395924501</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>11.28241747455756</v>
+        <v>8.964338002187098</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.01342285424470901</v>
+        <v>0.013422863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1012287884950638</v>
+        <v>0.10122881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1679897010326385</v>
+        <v>0.16798978</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1158570422749908</v>
+        <v>0.1158570784484581</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>15.32339602708817</v>
+        <v>15.32340049743652</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1770,19 +1770,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.005296405404806137</v>
+        <v>0.005296404</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.05691424012184143</v>
+        <v>0.05691423</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.09073860943317413</v>
+        <v>0.09073862000000001</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.07277640692426453</v>
+        <v>0.072776397326484</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>8.794225752353668</v>
+        <v>8.794224262237549</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02657312341034412</v>
+        <v>0.026446072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1194307059049606</v>
+        <v>0.11945704</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1480014324188232</v>
+        <v>0.1481131</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1630126480072762</v>
+        <v>0.1626224842533008</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.66131615638733</v>
+        <v>16.64714813232422</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01062454842031002</v>
+        <v>0.01062455</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.08782612532377243</v>
+        <v>0.08782613</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1225323751568794</v>
+        <v>0.12253238</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.103075450133919</v>
+        <v>0.1030754591692667</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>12.74823397397995</v>
+        <v>12.74823546409607</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.007835330441594124</v>
+        <v>0.007831001000000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06857484579086304</v>
+        <v>0.068518765</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1128877475857735</v>
+        <v>0.11285391</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08851740191394077</v>
+        <v>0.0884929416560707</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.06614172458649</v>
+        <v>11.05921790003777</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.01838991791009903</v>
+        <v>0.018370908</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1222692057490349</v>
+        <v>0.12220566</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1769966334104538</v>
+        <v>0.17690806</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.135609431493901</v>
+        <v>0.1355393217989007</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>19.60878074169159</v>
+        <v>19.5976659655571</v>
       </c>
     </row>
   </sheetData>
@@ -2205,23 +2205,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2239,19 +2239,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1053674990088677</v>
+        <v>0.354635224700996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2763454640608003</v>
+        <v>0.4498591641342042</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1081278951788363</v>
+        <v>0.1889434663668843</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3246036028895362</v>
+        <v>0.5955125730838905</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.30581715903516</v>
+        <v>19.36042679608392</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1575446651597618</v>
+        <v>0.2963944198796234</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3171626708561844</v>
+        <v>0.4203655441578151</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.122983566129193</v>
+        <v>0.1795258340054903</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3969189654825803</v>
+        <v>0.5444211787574244</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>13.47934993969151</v>
+        <v>17.93401605212825</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,53 +2907,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.233400837121915</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.9247391161276574</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3637644526485173</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.110585808085946</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>44.86868753509692</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>1.779475502959986</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>1.206774343786212</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.4572226983213115</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>1.333969828354444</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>61.50023065126092</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>1.252064179591497</v>
+        <v>5.391468729485939</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.015813022128057</v>
+        <v>2.095723991622774</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3770819609627146</v>
+        <v>0.8351148286578729</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.118956737140224</v>
+        <v>2.321953644990773</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>49.10275176054338</v>
+        <v>136.703936493488</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3055,16 +3055,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7149301171302795</v>
+        <v>0.71493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6727209091186523</v>
+        <v>0.6727209</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3737424910068512</v>
+        <v>0.37374252</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8455354026475057</v>
+        <v>0.845535332154127</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>24.9299556016922</v>
@@ -3085,19 +3085,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3140418231487274</v>
+        <v>0.31404182</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3218733072280884</v>
+        <v>0.3218733</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2186989337205887</v>
+        <v>0.21869896</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.5603943461070315</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.89092653989792</v>
+        <v>13.89092952013016</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2932459115982056</v>
+        <v>0.29324594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4707501232624054</v>
+        <v>0.47075012</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1674947887659073</v>
+        <v>0.1674948</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5415218477570463</v>
+        <v>0.5415218752742386</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.64175349473953</v>
+        <v>18.64175647497177</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1879467368125916</v>
+        <v>0.18794681</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3912691175937653</v>
+        <v>0.3912692</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1427255272865295</v>
+        <v>0.14272554</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4335282422317969</v>
+        <v>0.4335283281613757</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.12892097234726</v>
+        <v>15.12892544269562</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3478417098522186</v>
+        <v>0.3477836</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3662310540676117</v>
+        <v>0.36620888</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2376220524311066</v>
+        <v>0.23759909</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5897810694251034</v>
+        <v>0.5897317994847849</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.41692316532135</v>
+        <v>15.41633158922195</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7636296153068542</v>
+        <v>0.9235584999999999</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7007797956466675</v>
+        <v>0.80521804</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3865064382553101</v>
+        <v>0.43123114</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8738590362906675</v>
+        <v>0.9610194969859021</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.72981715202332</v>
+        <v>28.70917320251465</v>
       </c>
     </row>
   </sheetData>
@@ -3517,23 +3517,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3547,23 +3547,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2353986754830824</v>
+        <v>0.3080629334895571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3534838257595098</v>
+        <v>0.4182576707565179</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.126689504499235</v>
+        <v>0.158117780730243</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4851790138527041</v>
+        <v>0.5550341732628336</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.67206164907211</v>
+        <v>17.2048166291569</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.08991836108201721</v>
+        <v>0.3253733113088493</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2297913126251985</v>
+        <v>0.4694049710770481</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.08962915394144881</v>
+        <v>0.1790569765570461</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2998639042666143</v>
+        <v>0.5704150342591342</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>8.435022107593195</v>
+        <v>19.37645094034835</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5748916415707144</v>
+        <v>1.240753037744348</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.659143529521517</v>
+        <v>0.9528185328493139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2341426654226918</v>
+        <v>0.34488895132904</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7582160916062877</v>
+        <v>1.11389094517567</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.50742125366909</v>
+        <v>44.93979356018923</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.3790356495744907</v>
+        <v>1.11204218936069</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5854806213580922</v>
+        <v>0.8732790927153216</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2151503325215229</v>
+        <v>0.3278340715850835</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.6156587119293372</v>
+        <v>1.054534110098241</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.46126623207016</v>
+        <v>41.78532357563439</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4367,13 +4367,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.47432741522789</v>
+        <v>0.47432742</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5662919282913208</v>
+        <v>0.5662918</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2544963657855988</v>
+        <v>0.25449637</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6887143204753986</v>
@@ -4397,19 +4397,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.4308460354804993</v>
+        <v>0.43084586</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5134862661361694</v>
+        <v>0.5134862</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2348942905664444</v>
+        <v>0.23489423</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.65638863143758</v>
+        <v>0.656388495227152</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>18.67051273584366</v>
+        <v>18.67050975561142</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2764833569526672</v>
+        <v>0.27653125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3610255420207977</v>
+        <v>0.36107278</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.12483861297369</v>
+        <v>0.12485698</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5258168473457914</v>
+        <v>0.5258623862616001</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.24830257892609</v>
+        <v>14.25050795078278</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1901061683893204</v>
+        <v>0.19010623</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3433088958263397</v>
+        <v>0.34330902</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1243446618318558</v>
+        <v>0.12434468</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4360116608409921</v>
+        <v>0.4360117291931091</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>12.92676478624344</v>
+        <v>12.92676627635956</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.53278648853302</v>
+        <v>0.28654814</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.629347026348114</v>
+        <v>0.40523747</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2759707570075989</v>
+        <v>0.18790527</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7299222482792397</v>
+        <v>0.5353019126294944</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.19185531139374</v>
+        <v>15.2383953332901</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.248829111456871</v>
+        <v>0.24996395</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4303122162818909</v>
+        <v>0.43165115</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1724403649568558</v>
+        <v>0.1728661</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4988277372569322</v>
+        <v>0.4999639527916708</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>17.40113943815231</v>
+        <v>17.45826005935669</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.125026859030909</v>
+        <v>0.2837843325801419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3273784930520338</v>
+        <v>0.4594921991493343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.116129634696885</v>
+        <v>0.162183556453463</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.353591372958828</v>
+        <v>0.5327141189983066</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.42612936094664</v>
+        <v>18.12591718957614</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.08669856782117302</v>
+        <v>0.2448704040537987</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2090522350949121</v>
+        <v>0.4134289414790459</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.0714726416709011</v>
+        <v>0.1463141868426575</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2944462053095149</v>
+        <v>0.4948438178393247</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>7.597573434886486</v>
+        <v>16.27894636152498</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.00161312870788</v>
+        <v>2.351486221133914</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9252687323697895</v>
+        <v>1.378616724145445</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3283375100620313</v>
+        <v>0.5022632620615918</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.000806239343001</v>
+        <v>1.533455646940567</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.68944019386849</v>
+        <v>74.57102509575478</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.2113422219745201</v>
+        <v>2.759459385156989</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3932383530119564</v>
+        <v>1.449081593224282</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1371669565474061</v>
+        <v>0.5295341840906285</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4597197211068066</v>
+        <v>1.661162058667663</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>15.07959312140815</v>
+        <v>83.03312851201422</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5679,19 +5679,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1472956538200378</v>
+        <v>0.14729576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3041751086711884</v>
+        <v>0.30417517</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.118929885327816</v>
+        <v>0.118929915</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3837911591217779</v>
+        <v>0.3837912950135349</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.84911599755287</v>
+        <v>10.84911674261093</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5709,19 +5709,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1896864175796509</v>
+        <v>0.18968639</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3773322403430939</v>
+        <v>0.37733227</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.145600825548172</v>
+        <v>0.14560083</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4355300421092108</v>
+        <v>0.4355300078953555</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.22396248579025</v>
+        <v>13.22396397590637</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09771076589822769</v>
+        <v>0.09771079000000001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2735657095909119</v>
+        <v>0.27356577</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09852644056081772</v>
+        <v>0.09852646</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3125872132673179</v>
+        <v>0.3125872490201247</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.54359376430511</v>
+        <v>10.54359674453735</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1698230504989624</v>
+        <v>0.16982302</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3586409687995911</v>
+        <v>0.35864094</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1273547112941742</v>
+        <v>0.12735471</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4120959239048142</v>
+        <v>0.4120958877453644</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>13.88747096061707</v>
+        <v>13.88746947050095</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2373430281877518</v>
+        <v>0.23730488</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4347924590110779</v>
+        <v>0.43476316</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1535330265760422</v>
+        <v>0.15352309</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.487178640939596</v>
+        <v>0.4871394884579729</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.94341003894806</v>
+        <v>16.94214344024658</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2466289401054382</v>
+        <v>0.24705297</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4506615102291107</v>
+        <v>0.45110074</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1723645329475403</v>
+        <v>0.17252854</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4966174987910094</v>
+        <v>0.4970442309778581</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>15.54039865732193</v>
+        <v>15.55410027503967</v>
       </c>
     </row>
   </sheetData>
@@ -6139,23 +6139,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04307249302249967</v>
+        <v>0.0141362572504204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1444902053073924</v>
+        <v>0.0872052315472332</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.082152562525829</v>
+        <v>0.1690461686199834</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2075391361225628</v>
+        <v>0.1188959934161806</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>29.66469904354527</v>
+        <v>15.2074430045375</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6169,23 +6169,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04352786532704928</v>
+        <v>0.0153717219690557</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1463508534520188</v>
+        <v>0.1001207243450176</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.08428839826708</v>
+        <v>0.14195446460998</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2086333274600424</v>
+        <v>0.1239827486751915</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>29.90616199342748</v>
+        <v>14.77513434559456</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04741835784079175</v>
+        <v>0.3167743204906798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1352866352894194</v>
+        <v>0.5252984986970978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.154206175038124</v>
+        <v>0.9203239726678684</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.217757566667135</v>
+        <v>0.5628270786757508</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.58731953431267</v>
+        <v>127.0713067268134</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6297,19 +6297,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4012424358802271</v>
+        <v>0.36268532191813</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5847307139582304</v>
+        <v>0.5895240986636676</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9558429723829484</v>
+        <v>0.890896297036085</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.633437002297961</v>
+        <v>0.6022336107509527</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>184.9437366011025</v>
+        <v>147.6143981263233</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6841,23 +6841,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05287251365761335</v>
+        <v>0.0057888662215844</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1667813125310141</v>
+        <v>0.06358643706269421</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.177581275459227</v>
+        <v>0.1125005907427328</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2299402393179875</v>
+        <v>0.07608459910904759</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.80922422454865</v>
+        <v>10.55950115937148</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6871,23 +6871,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05434840432822551</v>
+        <v>0.0051387577421701</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1715709585373859</v>
+        <v>0.0538852814263947</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.184007302389395</v>
+        <v>0.0818774594801889</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2331274422461361</v>
+        <v>0.0716851291564026</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>33.50564914266134</v>
+        <v>8.573952655530984</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05095580220222473</v>
+        <v>0.050955743</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1684384644031525</v>
+        <v>0.16843839</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4512409567832947</v>
+        <v>0.45124048</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2257339190335044</v>
+        <v>0.2257337870093441</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.28725469112396</v>
+        <v>26.28724575042725</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04966159909963608</v>
+        <v>0.051619068</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1964852958917618</v>
+        <v>0.18130746</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3069809973239899</v>
+        <v>0.2951107</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2228488256635787</v>
+        <v>0.2271983005837061</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.54649031162262</v>
+        <v>28.72558832168579</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7051,16 +7051,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2468925565481186</v>
+        <v>0.24689272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4408953785896301</v>
+        <v>0.44089544</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6659240126609802</v>
+        <v>0.66592425</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4968828398607851</v>
+        <v>0.4968830048018263</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>87.84643411636353</v>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05447650700807571</v>
+        <v>0.054476496</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1941493898630142</v>
+        <v>0.19414937</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2975771725177765</v>
+        <v>0.29757714</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2334020287145673</v>
+        <v>0.2334020047733198</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>29.91134226322174</v>
+        <v>29.91133928298951</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1497347801923752</v>
+        <v>0.14980051</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2767779231071472</v>
+        <v>0.2768408</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6559308171272278</v>
+        <v>0.65640223</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3869557858365413</v>
+        <v>0.3870407074383795</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.50872433185577</v>
+        <v>42.5520271062851</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>38.94503402709961</v>
+        <v>38.94771</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>4.906806945800781</v>
+        <v>4.907054</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>8.114829063415527</v>
+        <v>8.115284000000001</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>6.240595646819269</v>
+        <v>6.240809893746389</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>141.2912130355835</v>
+        <v>141.2921547889709</v>
       </c>
     </row>
   </sheetData>
@@ -7449,53 +7449,53 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0188687862709548</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1071540284336301</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1801003006410925</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1373637007034786</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.32036372753407</v>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
           <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.06569417642671847</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.1680621509996278</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>1.154158092019591</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.2563087521461537</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>31.90699401870898</v>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
-        </is>
-      </c>
       <c r="L9" s="8" t="n">
-        <v>0.06569417642671847</v>
+        <v>0.0061744066798409</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1680621509996278</v>
+        <v>0.0605363543193666</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.154158092019591</v>
+        <v>0.1155348240104712</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2563087521461537</v>
+        <v>0.078577392931052</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>31.90699401870898</v>
+        <v>12.52480592630475</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09787084713849513</v>
+        <v>0.2784381977804735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.285731924374936</v>
+        <v>0.50264983863919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9967621059226124</v>
+        <v>1.124948413576248</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3128431669998485</v>
+        <v>0.5276724341677074</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>73.57643123636154</v>
+        <v>122.4984256472056</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4143339080495433</v>
+        <v>0.278486021444567</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5959969275206045</v>
+        <v>0.4730110281597878</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1</v>
+        <v>0.7463763431672791</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6436877411055327</v>
+        <v>0.5277177478961335</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>200</v>
+        <v>114.5663395969409</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05324298057259107</v>
+        <v>0.0106033313394641</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1635990026482941</v>
+        <v>0.0814474319517178</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.229417054348433</v>
+        <v>0.1668438105536221</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2307444052899031</v>
+        <v>0.1029724785535638</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.10060458502534</v>
+        <v>14.62864798395772</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05344056257742446</v>
+        <v>0.0062886283437448</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1644578429804456</v>
+        <v>0.06386920327993791</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.228929426516965</v>
+        <v>0.1080171725639261</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2311721492252569</v>
+        <v>0.07930087227606521</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>32.21885088584574</v>
+        <v>10.36231457553783</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08986968547105789</v>
+        <v>0.08986969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.252066433429718</v>
+        <v>0.25206643</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4744639992713928</v>
+        <v>0.4744641</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2997827304416615</v>
+        <v>0.2997827428682953</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>55.39079308509827</v>
+        <v>55.39079904556274</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8329,19 +8329,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0494275763630867</v>
+        <v>0.049428433</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1589703112840652</v>
+        <v>0.15897292</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3867077231407166</v>
+        <v>0.38671216</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2223231350154246</v>
+        <v>0.2223250619697548</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.45562332868576</v>
+        <v>24.4560495018959</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8361,16 +8361,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03188270330429077</v>
+        <v>0.03188272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1484381854534149</v>
+        <v>0.14843822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.230900913476944</v>
+        <v>0.23090096</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1785572829774545</v>
+        <v>0.1785573247040063</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>23.19015115499496</v>
@@ -8391,19 +8391,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02551280334591866</v>
+        <v>0.025512792</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1293842643499374</v>
+        <v>0.12938423</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1858844757080078</v>
+        <v>0.18588443</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1597272780270128</v>
+        <v>0.1597272430427814</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.54128593206406</v>
+        <v>19.5412814617157</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09884170442819595</v>
+        <v>0.10395683</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2478183656930923</v>
+        <v>0.25712806</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6039501428604126</v>
+        <v>0.6108859</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3143910056413764</v>
+        <v>0.3224233761404229</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>51.03323459625244</v>
+        <v>51.42527222633362</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2881976068019867</v>
+        <v>0.2882318</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4866530001163483</v>
+        <v>0.48667133</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.872652530670166</v>
+        <v>0.87268317</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5368403922973631</v>
+        <v>0.5368722288084619</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>124.8110771179199</v>
+        <v>124.8151659965515</v>
       </c>
     </row>
   </sheetData>
@@ -8759,23 +8759,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06268957211963207</v>
+        <v>0.0076272417305097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.197865821552497</v>
+        <v>0.072081266881987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.23105693816201</v>
+        <v>0.1357556989409815</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2503788571737479</v>
+        <v>0.08733408115111641</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>36.74265040738904</v>
+        <v>14.25655939290433</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06951336729224504</v>
+        <v>0.009612852437139</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1520267053192309</v>
+        <v>0.070664233485462</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.461101598951884</v>
+        <v>0.1391255433303945</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2636538778251612</v>
+        <v>0.0980451550926362</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.07231007553565</v>
+        <v>14.39624208865919</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03329953359723595</v>
+        <v>0.3272044608721823</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1286017618987385</v>
+        <v>0.548656378172394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.025082102359171</v>
+        <v>1.242079261284073</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1824815979687704</v>
+        <v>0.5720178850981692</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.1471193453633</v>
+        <v>136.1075622285305</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8917,19 +8917,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>18.12392991126508</v>
+        <v>0.4022067654896621</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>3.841592286904493</v>
+        <v>0.6065390280424722</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>9.009403823142959</v>
+        <v>1.21170165596217</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>4.25722091407823</v>
+        <v>0.6341977337468671</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>178.0194298430422</v>
+        <v>152.3553689141737</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,53 +9461,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0118460157781839</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.0840572757867056</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2114765866012501</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1088394036100159</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>16.57443719584816</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.03826359215234085</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.1320326895851291</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>1.14035468890592</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.1956108180861704</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>26.98843441379989</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.04611925105949886</v>
+        <v>0.0161926158914897</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1456402799480725</v>
+        <v>0.1017316512061301</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.210563177626777</v>
+        <v>0.2168993923729711</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2147539314180275</v>
+        <v>0.1272502097895704</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.81575243809193</v>
+        <v>18.36474414775284</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9609,19 +9609,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04196690022945404</v>
+        <v>0.04196688</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1709330230951309</v>
+        <v>0.17093301</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4780053198337555</v>
+        <v>0.47800505</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2048582442311123</v>
+        <v>0.2048581987693012</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.46327936649323</v>
+        <v>32.46327340602875</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9639,19 +9639,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08462638407945633</v>
+        <v>0.07810020400000001</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2215940207242966</v>
+        <v>0.21183556</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7372650504112244</v>
+        <v>0.7121266000000001</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2909061430761756</v>
+        <v>0.2794641380710116</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>34.95159149169922</v>
+        <v>33.48797559738159</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9671,19 +9671,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02942640893161297</v>
+        <v>0.02944163</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1455562561750412</v>
+        <v>0.14561148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.255930483341217</v>
+        <v>0.25599295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1715412747172323</v>
+        <v>0.1715856359599266</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.51251745223999</v>
+        <v>24.51754510402679</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9701,16 +9701,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03261180594563484</v>
+        <v>0.032611802</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1371517032384872</v>
+        <v>0.1371517</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2339690327644348</v>
+        <v>0.23396902</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1805873914359329</v>
+        <v>0.1805873811215627</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>28.94206345081329</v>
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9229761362075806</v>
+        <v>0.918667</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.810759425163269</v>
+        <v>0.80924064</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.174846172332764</v>
+        <v>2.1705537</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.960716470248939</v>
+        <v>0.9584711880977664</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>109.2669725418091</v>
+        <v>109.2523217201233</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.09532754868268967</v>
+        <v>0.09532723</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2399417161941528</v>
+        <v>0.23994137</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5686702132225037</v>
+        <v>0.56867075</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3087515970528568</v>
+        <v>0.3087510782292492</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>56.51128888130188</v>
+        <v>56.51122331619263</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.51790038361044</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3600031965124973</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6062176208571961</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7196529605375358</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.78396731996065</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.51790038361044</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3600031965124973</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6062176208571961</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7196529605375358</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>17.78396731996065</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5161902595608893</v>
+        <v>5.303255772002762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3356055222245092</v>
+        <v>2.256986798719725</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5711621920908626</v>
+        <v>0.865913291564155</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7184638192427572</v>
+        <v>2.302879886577405</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.88524054644678</v>
+        <v>144.6872226630209</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10227,19 +10227,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>5.801906464918591</v>
+        <v>9.233848073224854</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>1.706085387814601</v>
+        <v>2.940553458223493</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9176697967949319</v>
+        <v>1.074374277999473</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.40871469147315</v>
+        <v>3.038724744563886</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>73.05554558748638</v>
+        <v>171.357116721605</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5162000009778891</v>
+        <v>0.2447566244579083</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3609820102241452</v>
+        <v>0.2882483517874507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5866160887003137</v>
+        <v>0.1269162228924008</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7184705985479776</v>
+        <v>0.4947288393230258</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.87942585951762</v>
+        <v>12.51405363154341</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5180646475357268</v>
+        <v>0.0817302120543308</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3614994365905366</v>
+        <v>0.1832466378276787</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5871706308915817</v>
+        <v>0.0640852081017093</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7197670786690141</v>
+        <v>0.28588496297345</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>17.89378061222999</v>
+        <v>6.878545242708607</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3232892155647278</v>
+        <v>0.32328913</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.455466091632843</v>
+        <v>0.45546603</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1881902515888214</v>
+        <v>0.1881902</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.568585275543368</v>
+        <v>0.56858519692106</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.12953555583954</v>
+        <v>19.12953108549118</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,19 +10949,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7215741276741028</v>
+        <v>0.7215743</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.7477148175239563</v>
+        <v>0.7477148</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2730406224727631</v>
+        <v>0.27304062</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8494551946242385</v>
+        <v>0.8494552998763603</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>33.18547308444977</v>
+        <v>33.18547606468201</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3282963037490845</v>
+        <v>0.328443</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5049603581428528</v>
+        <v>0.5051053</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.176991879940033</v>
+        <v>0.17704058</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.572971468529703</v>
+        <v>0.5730994597623319</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.36292350292206</v>
+        <v>19.37012076377869</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4123830199241638</v>
+        <v>0.41238272</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4825451970100403</v>
+        <v>0.48254508</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1671814024448395</v>
+        <v>0.16718136</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6421705536103036</v>
+        <v>0.6421703215665918</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.51092427968979</v>
+        <v>18.51091980934143</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6045514941215515</v>
+        <v>0.6016289</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6934080719947815</v>
+        <v>0.68739104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2715751230716705</v>
+        <v>0.26939803</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7775290953537054</v>
+        <v>0.7756474067347094</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.07239007949829</v>
+        <v>30.91259598731994</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.8840847015380859</v>
+        <v>0.88501537</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.736865758895874</v>
+        <v>0.7375617</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2659879624843597</v>
+        <v>0.26620284</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9402577846197744</v>
+        <v>0.9407525543210652</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>33.68008136749268</v>
+        <v>33.71199369430542</v>
       </c>
     </row>
   </sheetData>
@@ -11379,23 +11379,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.575800990090811</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4380556937993376</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6300519555865471</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7588155178242014</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>20.69951706871148</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11409,23 +11409,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.575800990090811</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4380556937993376</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6300519555865471</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7588155178242014</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>20.69951706871148</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,23 +11503,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.556857453944392</v>
+        <v>6.706605678899304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.659541552276866</v>
+        <v>2.552841231813646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.146113244472546</v>
+        <v>1.017419058417388</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.748973891099076</v>
+        <v>2.589711504955582</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>186.2498426910126</v>
+        <v>175.9915008157339</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11537,19 +11537,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>5065.068324856207</v>
+        <v>2906.330872046892</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>67.41865081550468</v>
+        <v>39.9634526488535</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>40.73017380558338</v>
+        <v>15.2271438512063</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>71.16929341265239</v>
+        <v>53.91039669717606</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>186.1108411977874</v>
+        <v>184.4481747064764</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5273055405137896</v>
+        <v>0.1901807711529426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3568153462849063</v>
+        <v>0.230924660993445</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6015234723200559</v>
+        <v>0.1455841538862953</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7261580685455403</v>
+        <v>0.4360972037894105</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.66336918505008</v>
+        <v>11.33185892731403</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5176306507294928</v>
+        <v>0.0866025590707835</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3347933468909629</v>
+        <v>0.1837708283968748</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5979435956905838</v>
+        <v>0.08339411272532229</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7194655313004875</v>
+        <v>0.2942831273973816</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>16.8154852926403</v>
+        <v>7.615859112725946</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12229,19 +12229,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.34072732925415</v>
+        <v>1.3407273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.015424013137817</v>
+        <v>1.015424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4989373385906219</v>
+        <v>0.49893734</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1.157897806049459</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>45.63075602054596</v>
+        <v>45.63075304031372</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.421051979064941</v>
+        <v>1.4210525</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.9443160891532898</v>
+        <v>0.9443162</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3653779029846191</v>
+        <v>0.36537793</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.192078847671135</v>
+        <v>1.192079047673475</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>51.78927779197693</v>
+        <v>51.78928375244141</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12291,19 +12291,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2660550773143768</v>
+        <v>0.26605502</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3964608013629913</v>
+        <v>0.39646077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.142308235168457</v>
+        <v>0.14230822</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5158052707314814</v>
+        <v>0.515805212953235</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.57290947437286</v>
+        <v>14.57290649414062</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12321,19 +12321,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.320430725812912</v>
+        <v>0.32043076</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4264296889305115</v>
+        <v>0.4264298</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1531469076871872</v>
+        <v>0.15314694</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5660660083531884</v>
+        <v>0.5660660346772578</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.84447526931763</v>
+        <v>16.84447675943375</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.006584405899048</v>
+        <v>1.0067834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8647053241729736</v>
+        <v>0.864623</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4253502190113068</v>
+        <v>0.42540702</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.003286801417744</v>
+        <v>1.003385950770344</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.49040770530701</v>
+        <v>39.48440253734589</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>473837.3125</v>
+        <v>472244.4</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>537.5049438476562</v>
+        <v>536.44727</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>203.5906677246094</v>
+        <v>203.19737</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>688.3584186308758</v>
+        <v>687.2004119978393</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>197.8327631950378</v>
+        <v>197.7995872497558</v>
       </c>
     </row>
   </sheetData>
@@ -12689,23 +12689,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5393884823395788</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4246968508340793</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3378965207350837</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7344307199045931</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.61130821732982</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12719,23 +12719,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.3784763815716566</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2670954882836717</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2317650082328771</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.615204341314052</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>12.74714883240975</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3336107085711337</v>
+        <v>6.514836202950975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.286800652619086</v>
+        <v>2.490689896318137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2460799938659355</v>
+        <v>1.019967354629947</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5775904332406603</v>
+        <v>2.552417717175419</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.66597167352406</v>
+        <v>168.7813153790892</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.339428869643622</v>
+        <v>6.12687070986077</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3118467115190799</v>
+        <v>2.437588258627438</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2550638004159287</v>
+        <v>0.9746685998875591</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5826052434055344</v>
+        <v>2.475251645764683</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.78984330522735</v>
+        <v>167.5223939900769</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3391559652519102</v>
+        <v>0.2896187124498415</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2748392783545557</v>
+        <v>0.323975638577682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2435244470309753</v>
+        <v>0.2185412138980813</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5823709859289954</v>
+        <v>0.5381623476701445</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>13.96380784249427</v>
+        <v>15.53423315897798</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.3153813448733095</v>
+        <v>0.0476218680981388</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2480540412522646</v>
+        <v>0.1299702095127</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.222542073891029</v>
+        <v>0.06721049238644471</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.5615882342725046</v>
+        <v>0.2182243526697669</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>12.46129270795526</v>
+        <v>5.88869001136558</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13539,19 +13539,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7392784357070923</v>
+        <v>0.73927844</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7512343525886536</v>
+        <v>0.7512344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3775894343852997</v>
+        <v>0.37758946</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8598130236900883</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>34.87589061260223</v>
+        <v>34.87589359283447</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13569,16 +13569,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.4840754568576813</v>
+        <v>0.4840754</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6044078469276428</v>
+        <v>0.6044077</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2811784744262695</v>
+        <v>0.28117844</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.6957553139270165</v>
+        <v>0.6957552710925275</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>26.54434144496918</v>
@@ -13601,16 +13601,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2780380547046661</v>
+        <v>0.27803808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4091420471668243</v>
+        <v>0.40914205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1527529209852219</v>
+        <v>0.15275295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.527293139254311</v>
+        <v>0.5272931675140391</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>16.89160019159317</v>
@@ -13631,19 +13631,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07949313521385193</v>
+        <v>0.079493165</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2152951210737228</v>
+        <v>0.21529518</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08172208815813065</v>
+        <v>0.08172212</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2819452698908991</v>
+        <v>0.2819453227421485</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.913913577795029</v>
+        <v>7.913916558027267</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.307927012443542</v>
+        <v>1.3078791</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9627751708030701</v>
+        <v>0.9627101</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4492746889591217</v>
+        <v>0.44924808</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.143646366865012</v>
+        <v>1.143625415207769</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>44.14677619934082</v>
+        <v>44.14536654949188</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7563844919204712</v>
+        <v>0.7563839999999999</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7873995304107666</v>
+        <v>0.7873993</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3424736857414246</v>
+        <v>0.3424735</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8697036805260003</v>
+        <v>0.8697034063882428</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.36651432514191</v>
+        <v>35.36649346351624</v>
       </c>
     </row>
   </sheetData>
@@ -13963,23 +13963,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03697890191916081</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1566026040415228</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2334777849854888</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1922989909468087</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>24.05379813579672</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14055,19 +14055,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02352529579017805</v>
+        <v>0.0457941137698658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1097468883567103</v>
+        <v>0.1872088056956883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1380519662400542</v>
+        <v>0.2854790606111872</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1533795807471713</v>
+        <v>0.2139955928748671</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.5029420182506</v>
+        <v>25.82116690360832</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01871225794844261</v>
+        <v>0.0055368671631534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.100321334934185</v>
+        <v>0.0602131062712962</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1287871675965921</v>
+        <v>0.09160990238251041</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1367927554676877</v>
+        <v>0.07441012809526321</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.04591646576618</v>
+        <v>8.960904769793022</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14615,16 +14615,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.01644951291382313</v>
+        <v>0.016449513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1150932163000107</v>
+        <v>0.11509322</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1870478391647339</v>
+        <v>0.18704782</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1282556545101351</v>
+        <v>0.128255654510135</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>16.80700331926346</v>
@@ -14659,19 +14659,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05046360194683075</v>
+        <v>0.050463628</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1773878037929535</v>
+        <v>0.17738785</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2554979920387268</v>
+        <v>0.25549805</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2246410513393105</v>
+        <v>0.2246411093808585</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.86095643043518</v>
+        <v>28.86096239089965</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03809128329157829</v>
+        <v>0.037440814</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1506153792142868</v>
+        <v>0.14908798</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2239630818367004</v>
+        <v>0.2215296</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1951698831571569</v>
+        <v>0.1934962895712839</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.06056106090546</v>
+        <v>18.87813061475753</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15025,19 +15025,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01122762496118662</v>
+        <v>0.0050270437013373</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07703282889395506</v>
+        <v>0.0585518229856626</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1405903598851261</v>
+        <v>0.1199865136934404</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1059604877356962</v>
+        <v>0.0709016480861857</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.07731850230998</v>
+        <v>13.27467303149987</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15051,23 +15051,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03725572180632283</v>
+        <v>0.0050270437013373</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1248212034935653</v>
+        <v>0.0585518229856626</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2102995828355222</v>
+        <v>0.1199865136934404</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.193017413220473</v>
+        <v>0.0709016480861857</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.17714380224943</v>
+        <v>13.27467303149988</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15149,19 +15149,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02318345649878691</v>
+        <v>0.0223984974160654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.109740725494039</v>
+        <v>0.1072421455418086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2265983641626896</v>
+        <v>0.2724647666225612</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1522611457292599</v>
+        <v>0.149661275606168</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.20133038969487</v>
+        <v>19.67068750841688</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15179,19 +15179,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02316624266531719</v>
+        <v>0.0224378424974389</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1093959639013495</v>
+        <v>0.1072016396088225</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2258935476681892</v>
+        <v>0.272709894787379</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1522046078977808</v>
+        <v>0.1497926650321668</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.14044167968315</v>
+        <v>19.67215045583596</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15727,19 +15727,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009269543109519732</v>
+        <v>0.0089088887578947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07724043659445194</v>
+        <v>0.07488004274746191</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1496902322892767</v>
+        <v>0.1684748804581494</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09627846648924011</v>
+        <v>0.0943869098863544</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>13.82830801110256</v>
+        <v>14.14477239356875</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15757,19 +15757,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.009269543109519732</v>
+        <v>0.0089088887578947</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.07724043659445194</v>
+        <v>0.07488004274746191</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1496902322892767</v>
+        <v>0.1684748804581494</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.09627846648924011</v>
+        <v>0.0943869098863544</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>13.82830801110256</v>
+        <v>14.14477239356875</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15871,16 +15871,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02861327305436134</v>
+        <v>0.028613275</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1202638298273087</v>
+        <v>0.12026383</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.401445746421814</v>
+        <v>0.40144575</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1691545833087633</v>
+        <v>0.1691545888145116</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>21.96697294712067</v>
@@ -15901,19 +15901,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02883433550596237</v>
+        <v>0.028834345</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1422581821680069</v>
+        <v>0.1422582</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3786852061748505</v>
+        <v>0.3786852</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1698067593058721</v>
+        <v>0.1698067867288823</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.63387155532837</v>
+        <v>25.63387453556061</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15933,16 +15933,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0167753528803587</v>
+        <v>0.016775357</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09387810528278351</v>
+        <v>0.09387812</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.126823291182518</v>
+        <v>0.12682329</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1295197007422373</v>
+        <v>0.1295197151234089</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>13.41928839683533</v>
@@ -15963,19 +15963,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.007693905849009752</v>
+        <v>0.0076939063</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.06763280183076859</v>
+        <v>0.06763281</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09982269257307053</v>
+        <v>0.09982271</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.08771491235251708</v>
+        <v>0.08771491500691909</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.883933514356613</v>
+        <v>9.883935004472733</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -15995,19 +15995,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07242775708436966</v>
+        <v>0.07263578499999999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2353754639625549</v>
+        <v>0.23563655</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4686442017555237</v>
+        <v>0.46901533</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2691240551945694</v>
+        <v>0.269510268348381</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.1942412853241</v>
+        <v>42.24457144737244</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -16025,19 +16025,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.02835255675017834</v>
+        <v>0.02838814</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1392256021499634</v>
+        <v>0.13929151</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3711105585098267</v>
+        <v>0.3713423</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1683821746806304</v>
+        <v>0.1684878058587898</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.46385228633881</v>
+        <v>25.47106742858887</v>
       </c>
     </row>
   </sheetData>
@@ -16295,23 +16295,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0178003890527422</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.0960755360802516</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.2511539521970708</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1334180986700914</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>18.43514923134276</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16387,19 +16387,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02543133730727951</v>
+        <v>0.0579791808660371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1191687506451945</v>
+        <v>0.1946924269355882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1838722583196605</v>
+        <v>0.3368488112529232</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1594720580768917</v>
+        <v>0.2407886643221336</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.13376656131699</v>
+        <v>27.41052886178409</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16817,23 +16817,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03163049156720417</v>
+        <v>0.0107757468444063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1351542818139645</v>
+        <v>0.0821936129134043</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2047960430386004</v>
+        <v>0.1921746380446695</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.177849631900671</v>
+        <v>0.1038062948207203</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.63558886246198</v>
+        <v>14.89279550225493</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16947,19 +16947,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04650869965553284</v>
+        <v>0.046508696</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1483363509178162</v>
+        <v>0.14833635</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3014135658740997</v>
+        <v>0.30141357</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2156587574283336</v>
+        <v>0.2156587487913313</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.80152332782745</v>
+        <v>20.80152481794357</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16991,19 +16991,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04950610548257828</v>
+        <v>0.049506113</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1704439073801041</v>
+        <v>0.17044389</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.246923640370369</v>
+        <v>0.24692363</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2224996752415119</v>
+        <v>0.2224996919844135</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.79468923807144</v>
+        <v>22.79469072818756</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2158315926790237</v>
+        <v>0.21893847</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3903999030590057</v>
+        <v>0.39314923</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7447229623794556</v>
+        <v>0.7493103</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4645767887863359</v>
+        <v>0.4679086127512292</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>46.42183780670166</v>
+        <v>46.63072228431702</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007827605539981372</v>
+        <v>0.0443004635960529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07292523914907147</v>
+        <v>0.142343953862882</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1275872866751978</v>
+        <v>0.2858743927793524</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08847375622172585</v>
+        <v>0.21047675310127</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>12.82085504884582</v>
+        <v>27.52108154574324</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17409,19 +17409,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06287498351819724</v>
+        <v>0.07799990433468421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.201535128198317</v>
+        <v>0.2111691294504757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3986652944442604</v>
+        <v>0.3672091082158971</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.250748845497237</v>
+        <v>0.2792846296069374</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>36.91847103390716</v>
+        <v>31.92605720845669</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17843,19 +17843,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009298217219503645</v>
+        <v>0.0149047620329055</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07419406853995249</v>
+        <v>0.0876294690833667</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1416876704883916</v>
+        <v>0.2418487507367139</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09642726388062478</v>
+        <v>0.1220850606458689</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>12.78602596573571</v>
+        <v>16.82294583904597</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17969,13 +17969,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02517971023917198</v>
+        <v>0.02517971</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1271067559719086</v>
+        <v>0.12710674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3953949213027954</v>
+        <v>0.39539495</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1586811590554215</v>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04216733947396278</v>
+        <v>0.04216737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1778897643089294</v>
+        <v>0.17788981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2806769013404846</v>
+        <v>0.280677</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2053468759780941</v>
+        <v>0.2053469485438855</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.1922767162323</v>
+        <v>27.19227969646454</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2194208651781082</v>
+        <v>0.24278194</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3294163644313812</v>
+        <v>0.3430703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7156037092208862</v>
+        <v>0.74378526</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4684238093629616</v>
+        <v>0.492729070709599</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>73.11495542526245</v>
+        <v>76.32055282592773</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1355113892430811</v>
+        <v>0.0941152801689599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3104251339349532</v>
+        <v>0.2318898494759509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.107143289906581</v>
+        <v>0.080290273196333</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3681187162357832</v>
+        <v>0.3067821379561723</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.55354415371811</v>
+        <v>8.607624615946506</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0724068491524595</v>
+        <v>0.0437581655256966</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1952159359134993</v>
+        <v>0.1462096545723113</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06756236235715124</v>
+        <v>0.0560158209905713</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2690852079778067</v>
+        <v>0.2091845250626743</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.203087685677446</v>
+        <v>5.932980962261719</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18991,19 +18991,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2287423759698868</v>
+        <v>0.22874223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3819116353988647</v>
+        <v>0.3819115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1428105980157852</v>
+        <v>0.14281054</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4782701913875532</v>
+        <v>0.4782700356056972</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>12.91300803422928</v>
+        <v>12.91300058364868</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19035,19 +19035,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09292533993721008</v>
+        <v>0.09292536999999999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2450515925884247</v>
+        <v>0.24505165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08978402614593506</v>
+        <v>0.08978404</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3048365790668995</v>
+        <v>0.3048366279493533</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.200753271579742</v>
+        <v>9.200754761695862</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1582406312227249</v>
+        <v>0.15841168</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2972086668014526</v>
+        <v>0.29757234</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1078600883483887</v>
+        <v>0.10800777</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3977947098978629</v>
+        <v>0.3980096501996768</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.0215812921524</v>
+        <v>11.03677600622177</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1589051373672562</v>
+        <v>0.1465804058299384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3346033968580309</v>
+        <v>0.2967863208930281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1212971000070311</v>
+        <v>0.1250750406834499</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3986290724059852</v>
+        <v>0.3828582059064928</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.78444939360164</v>
+        <v>11.91051799665608</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19883,23 +19883,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06979989354984259</v>
+        <v>0.0677988521681923</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.203107038344959</v>
+        <v>0.1425110465185729</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07525896012293186</v>
+        <v>0.0722617464434933</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2641966948124874</v>
+        <v>0.2603821272057519</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.685645420712647</v>
+        <v>6.027604750582911</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20013,19 +20013,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3321307897567749</v>
+        <v>0.33213088</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3922106921672821</v>
+        <v>0.39221084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1777661144733429</v>
+        <v>0.17776617</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.576307894928375</v>
+        <v>0.5763079724971207</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.01440662145615</v>
+        <v>17.0144110918045</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5235062837600708</v>
+        <v>0.5235061600000001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6155164837837219</v>
+        <v>0.6155165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2242991030216217</v>
+        <v>0.22429907</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7235373409576529</v>
+        <v>0.7235372585781477</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.64373815059662</v>
+        <v>26.64373219013214</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2655130624771118</v>
+        <v>0.26537883</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3667709231376648</v>
+        <v>0.36661357</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1715277284383774</v>
+        <v>0.17146556</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5152795964106398</v>
+        <v>0.5151493305994658</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.28330540657043</v>
+        <v>14.27658647298813</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2154030883485114</v>
+        <v>0.2129166956399414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3706467586563784</v>
+        <v>0.340242343295646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1602710829538135</v>
+        <v>0.1872215552941987</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4641153825812191</v>
+        <v>0.4614289713920675</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.97283057020652</v>
+        <v>14.88402243418467</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5524755820151911</v>
+        <v>0.162804922129021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6264042990339881</v>
+        <v>0.239955221735865</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2374269007411977</v>
+        <v>0.1321436336696455</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.743287011870375</v>
+        <v>0.403490919512473</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.08064636628446</v>
+        <v>11.09881120169487</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21035,19 +21035,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7695698738098145</v>
+        <v>0.7695699</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7078521251678467</v>
+        <v>0.7078520700000001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3833508491516113</v>
+        <v>0.38335085</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8772513173599766</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.94636380672455</v>
+        <v>25.94636082649231</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21079,19 +21079,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3465848863124847</v>
+        <v>0.3465048</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4754118025302887</v>
+        <v>0.47533444</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1785298585891724</v>
+        <v>0.17850186</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5887146051462328</v>
+        <v>0.5886465896208258</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.65267604589462</v>
+        <v>18.65032315254211</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5676116347312927</v>
+        <v>0.5680329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5690111517906189</v>
+        <v>0.56911945</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3089292347431183</v>
+        <v>0.30902264</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7534000495960249</v>
+        <v>0.7536795873317554</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.6026246547699</v>
+        <v>21.60492390394211</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21441,23 +21441,23 @@
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0048944155247928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.0624226590685215</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.118594975484577</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.06996009951960359</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>13.02762347219916</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21471,23 +21471,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02118740825880001</v>
+        <v>0.0048909175827334</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1117496478683705</v>
+        <v>0.062373196419102</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1671922272895023</v>
+        <v>0.1184862406352878</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1455589511462624</v>
+        <v>0.06993509550099609</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>18.38859196311508</v>
+        <v>13.01612763691891</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21565,23 +21565,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02283838059752753</v>
+        <v>0.0171200041430722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1089788945029543</v>
+        <v>0.09323340193972229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1573724934996189</v>
+        <v>0.1772502946621246</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1511237261237544</v>
+        <v>0.1308434337025448</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.15340115482225</v>
+        <v>15.40176205300062</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21595,23 +21595,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02282940538325865</v>
+        <v>0.0173486690588188</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1084545720998825</v>
+        <v>0.0938216228252365</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1554430207176177</v>
+        <v>0.1771855754042923</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1510940282845707</v>
+        <v>0.1317143464426668</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.03420264360188</v>
+        <v>15.47810056900293</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22147,19 +22147,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01514492015141078</v>
+        <v>0.0079520832888774</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09348226622515506</v>
+        <v>0.075574544607898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1314507667170479</v>
+        <v>0.1246910459133884</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.123064699046521</v>
+        <v>0.0891744542393027</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>13.93389390104851</v>
+        <v>12.21725005457716</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.01527782513270732</v>
+        <v>0.0058536659050888</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.09471595895256735</v>
+        <v>0.0627672750682927</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1379294370391539</v>
+        <v>0.1040744115323903</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1236034996782345</v>
+        <v>0.0765092537219441</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>14.64121013683364</v>
+        <v>10.10922067721087</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22291,13 +22291,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02075343020260334</v>
+        <v>0.02075343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1112361401319504</v>
+        <v>0.11123614</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2202522754669189</v>
+        <v>0.2202523</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1440605088239082</v>
@@ -22321,19 +22321,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.01163928303867579</v>
+        <v>0.01163928</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.08131491392850876</v>
+        <v>0.081314914</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1553564816713333</v>
+        <v>0.15535647</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.107885508937372</v>
+        <v>0.1078854959886085</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.62234503030777</v>
+        <v>13.62234354019165</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22353,19 +22353,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01273248624056578</v>
+        <v>0.012733127</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0890825092792511</v>
+        <v>0.089083396</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1291064321994781</v>
+        <v>0.129106</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1128383190257892</v>
+        <v>0.1128411582291546</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.62546479701996</v>
+        <v>12.62564361095428</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01070670504122972</v>
+        <v>0.010704588</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.08238738030195236</v>
+        <v>0.082379274</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.114870086312294</v>
+        <v>0.114857994</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1034732092922111</v>
+        <v>0.1034629795869886</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>11.30344495177269</v>
+        <v>11.3024614751339</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22415,19 +22415,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0205436572432518</v>
+        <v>0.02047748</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1157390549778938</v>
+        <v>0.115466274</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2547681927680969</v>
+        <v>0.254548</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1433305872563557</v>
+        <v>0.1430995434085824</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.82600688934326</v>
+        <v>19.78954076766968</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -22445,19 +22445,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.02033421956002712</v>
+        <v>0.020346627</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.09711544960737228</v>
+        <v>0.09714502</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2594174146652222</v>
+        <v>0.2595489</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1425981050365927</v>
+        <v>0.1426416020639355</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>16.88452959060669</v>
+        <v>16.88694059848785</v>
       </c>
     </row>
   </sheetData>
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1348703013849903</v>
+        <v>0.1247352519236087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3091253537734192</v>
+        <v>0.2862219883167178</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1066406431851945</v>
+        <v>0.099561886757375</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3672469215459678</v>
+        <v>0.3531787818139826</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.49944899748786</v>
+        <v>10.73515601125144</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1350465330223162</v>
+        <v>0.1244351034639401</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3093040188516005</v>
+        <v>0.2859858568721386</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1066999117259717</v>
+        <v>0.0994864145173673</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3674867793843966</v>
+        <v>0.3527536016314222</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>11.50661068947318</v>
+        <v>10.72561738333286</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04128196547990724</v>
+        <v>0.0373051662178396</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1495885121098528</v>
+        <v>0.1502001057776937</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05306904839468349</v>
+        <v>0.0538956741717182</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2031796384481162</v>
+        <v>0.1931454535261952</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.536688980355999</v>
+        <v>5.526609858941084</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03948654394054946</v>
+        <v>0.0421300096978091</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1676164590731608</v>
+        <v>0.1647836421916025</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.06122549266755041</v>
+        <v>0.0600551917344425</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1987122138685729</v>
+        <v>0.2052559614184425</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>6.384577027689383</v>
+        <v>6.227914183584955</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23601,19 +23601,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.347784698009491</v>
+        <v>0.34778464</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5456752777099609</v>
+        <v>0.54567516</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2043970823287964</v>
+        <v>0.20439708</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5897327343886305</v>
+        <v>0.5897326838533253</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.20652037858963</v>
+        <v>18.20651888847351</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23631,19 +23631,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5229306817054749</v>
+        <v>0.5229307</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6907750964164734</v>
+        <v>0.6907751600000001</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2610750794410706</v>
+        <v>0.26107508</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.7231394621409309</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.73660749197006</v>
+        <v>22.73660451173782</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23663,19 +23663,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06961037218570709</v>
+        <v>0.06961038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2252185046672821</v>
+        <v>0.22521855</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08014118671417236</v>
+        <v>0.0801412</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.263837776267363</v>
+        <v>0.263837790386987</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.333294093608856</v>
+        <v>8.333295583724976</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23693,19 +23693,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0715799480676651</v>
+        <v>0.07156715</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2209436446428299</v>
+        <v>0.22092606</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0778258815407753</v>
+        <v>0.07782088</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2675442917867341</v>
+        <v>0.2675203692622294</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.04300457239151</v>
+        <v>8.042428642511368</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23725,19 +23725,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1175734475255013</v>
+        <v>0.11753022</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.314326286315918</v>
+        <v>0.31402478</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.116718165576458</v>
+        <v>0.116627984</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3428898475101024</v>
+        <v>0.3428268065027557</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.9306892156601</v>
+        <v>11.91898137331009</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -23755,19 +23755,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04634077101945877</v>
+        <v>0.046327766</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1463697701692581</v>
+        <v>0.14637697</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.05640196055173874</v>
+        <v>0.05640273</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2152690665642855</v>
+        <v>0.2152388580880014</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>5.391174927353859</v>
+        <v>5.391442030668259</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2159668868640098</v>
+        <v>0.2601949232931591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3706105882618447</v>
+        <v>0.3937168932971476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1601011132206822</v>
+        <v>0.2078947543788333</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.464722376117193</v>
+        <v>0.5100930535629348</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.97105534785007</v>
+        <v>16.97204492534444</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2158887447936731</v>
+        <v>0.260450427421844</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3705918107490951</v>
+        <v>0.3939568076626514</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1600710913291719</v>
+        <v>0.2079966134372526</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4646382945837258</v>
+        <v>0.5103434406572147</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>14.97049481597648</v>
+        <v>16.98158781943051</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0925378711612473</v>
+        <v>0.1705279882650092</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2035221331016652</v>
+        <v>0.2389527270919633</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09488824564691559</v>
+        <v>0.1397929117200326</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3042003799492159</v>
+        <v>0.4129503460042251</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>8.551763135141639</v>
+        <v>11.33526238984728</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.08598222866668009</v>
+        <v>0.168750308742901</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2194526411764076</v>
+        <v>0.2429372755788816</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.08867745930545733</v>
+        <v>0.1406112222027404</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2932272645350021</v>
+        <v>0.4107922939185947</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>8.942118317120592</v>
+        <v>11.45621372553306</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6980119347572327</v>
+        <v>0.6980118</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.659115195274353</v>
+        <v>0.65911514</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3680945038795471</v>
+        <v>0.3680945</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8354710855303328</v>
+        <v>0.8354710141877713</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.53142255544662</v>
+        <v>24.53141957521438</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24942,19 +24942,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6185777187347412</v>
+        <v>0.61857754</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.603785514831543</v>
+        <v>0.60378546</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3407284319400787</v>
+        <v>0.34072834</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.786497119342939</v>
+        <v>0.786497005665506</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.91854470968246</v>
+        <v>22.91854321956635</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03867615759372711</v>
+        <v>0.03867436</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1468207985162735</v>
+        <v>0.14682089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05336296930909157</v>
+        <v>0.053363267</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1966625475115359</v>
+        <v>0.1966579728323084</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.441206321120262</v>
+        <v>5.441199243068695</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25004,19 +25004,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03373408690094948</v>
+        <v>0.033734087</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1452880054712296</v>
+        <v>0.14528798</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05444655194878578</v>
+        <v>0.054446544</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.183668415632491</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.399908125400543</v>
+        <v>5.399907007813454</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25036,19 +25036,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3224912285804749</v>
+        <v>0.32205614</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3570899665355682</v>
+        <v>0.35666814</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2302818149328232</v>
+        <v>0.23006831</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5678831117232443</v>
+        <v>0.5674999070272495</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.07447063922882</v>
+        <v>15.06053507328033</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -25066,19 +25066,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4865105450153351</v>
+        <v>0.486508</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4927555620670319</v>
+        <v>0.49275312</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.295182853937149</v>
+        <v>0.29518172</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6975030788572443</v>
+        <v>0.6975012629507793</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>19.47677731513977</v>
+        <v>19.47670727968216</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.152411342515789</v>
+        <v>0.1855855983863646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3288229237896212</v>
+        <v>0.3489881892858728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1196478930730264</v>
+        <v>0.1431961563841961</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3903989530157438</v>
+        <v>0.4307964697932941</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.54005853485303</v>
+        <v>13.99267795483325</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1523987659514019</v>
+        <v>0.1856366140777457</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3287872433612654</v>
+        <v>0.3492231742295844</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1196320854141947</v>
+        <v>0.1432941939748235</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3903828453600413</v>
+        <v>0.4308556766223995</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>12.53861148201535</v>
+        <v>14.00243199705567</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26079,19 +26079,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03680057544517754</v>
+        <v>0.085862443858831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1496151496879791</v>
+        <v>0.1824388528692643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05603856082328411</v>
+        <v>0.0869551803328051</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1918347607843207</v>
+        <v>0.2930229408405271</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.67119634408681</v>
+        <v>7.55770289290463</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26109,19 +26109,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03539419643092066</v>
+        <v>0.0861850185258079</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1448859041476995</v>
+        <v>0.1851368050600543</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.05497466925521746</v>
+        <v>0.0878449007796496</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1881334537792805</v>
+        <v>0.2935728504576128</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>5.482934162166792</v>
+        <v>7.673096534235547</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26223,19 +26223,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5016169548034668</v>
+        <v>0.5016171</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6362969279289246</v>
+        <v>0.6362969000000001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2747253775596619</v>
+        <v>0.2747254</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7082492180041337</v>
+        <v>0.7082493021618562</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.42950797080994</v>
+        <v>22.42950946092606</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26253,19 +26253,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3944857120513916</v>
+        <v>0.3944857</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.508542537689209</v>
+        <v>0.5085425</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2296916544437408</v>
+        <v>0.22969165</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.6280809757120427</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>18.47371011972427</v>
+        <v>18.47370862960815</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06643769145011902</v>
+        <v>0.066448115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1976724416017532</v>
+        <v>0.19770633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07015341520309448</v>
+        <v>0.07016675</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2577550997557934</v>
+        <v>0.2577753184701245</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.350615411996841</v>
+        <v>7.352010905742645</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26315,16 +26315,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04727647453546524</v>
+        <v>0.047276467</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1622571349143982</v>
+        <v>0.1622571</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05674903094768524</v>
+        <v>0.056749023</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2174315398820172</v>
+        <v>0.2174315227488522</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>5.874009802937508</v>
@@ -26347,19 +26347,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3290607929229736</v>
+        <v>0.32906353</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4290379285812378</v>
+        <v>0.4290404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2003318071365356</v>
+        <v>0.20033282</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.573638207342375</v>
+        <v>0.5736405971831433</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.04918241500854</v>
+        <v>16.04926139116287</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -26377,19 +26377,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2996490001678467</v>
+        <v>0.29958484</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3996550738811493</v>
+        <v>0.3995952</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1874224990606308</v>
+        <v>0.18739861</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.547402046185294</v>
+        <v>0.5473434349361889</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>15.05747586488724</v>
+        <v>15.05555212497711</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03306811759656291</v>
+        <v>0.0298792336425654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1405085227769504</v>
+        <v>0.1362094324518457</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1808432542962874</v>
+        <v>0.1878762109582512</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1818464121080284</v>
+        <v>0.1728561067552011</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.15844328250092</v>
+        <v>20.37131347564423</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03306595749701981</v>
+        <v>0.0298848715825923</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1405027396682731</v>
+        <v>0.1362242640570453</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1808323682277296</v>
+        <v>0.1878989795646937</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.181840472659471</v>
+        <v>0.1728724141747095</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.15749608905713</v>
+        <v>20.37377062401771</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27388,23 +27388,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07172277983872234</v>
+        <v>0.0300984992525361</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1990420673130869</v>
+        <v>0.1370046889949077</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2534132916401117</v>
+        <v>0.1892574324264915</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2678110898352089</v>
+        <v>0.1734891905927749</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.85042533933137</v>
+        <v>20.50390250212584</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27418,23 +27418,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06247127182878053</v>
+        <v>0.0300984992525361</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1946105551797913</v>
+        <v>0.1370046889949077</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2498622181610467</v>
+        <v>0.1892574324264915</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2499425370535806</v>
+        <v>0.1734891905927749</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>30.37721605829951</v>
+        <v>20.50390250212584</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03129158914089203</v>
+        <v>0.031291585</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1505147069692612</v>
+        <v>0.1505147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2619675397872925</v>
+        <v>0.2619675</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1768942880391903</v>
+        <v>0.1768942775094822</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>21.8875989317894</v>
@@ -27566,19 +27566,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06108956038951874</v>
+        <v>0.06108956</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2111130207777023</v>
+        <v>0.21111302</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3704048097133636</v>
+        <v>0.3704048</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2471630239123942</v>
+        <v>0.2471630239123941</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>28.92215549945831</v>
+        <v>28.92215549945832</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27598,19 +27598,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01249772030860186</v>
+        <v>0.0124977175</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09480880200862885</v>
+        <v>0.09480879</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1351514011621475</v>
+        <v>0.13515137</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.111793203320246</v>
+        <v>0.1117931908241022</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.18010538816452</v>
+        <v>13.1801038980484</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27628,16 +27628,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01213578693568707</v>
+        <v>0.012135781</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09326155483722687</v>
+        <v>0.09326155</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1306296736001968</v>
+        <v>0.13062966</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1101625477904676</v>
+        <v>0.110162522428236</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>12.9075825214386</v>
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01861495338380337</v>
+        <v>0.018612746</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1054902970790863</v>
+        <v>0.10546213</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1538176387548447</v>
+        <v>0.1537526</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1364366277207238</v>
+        <v>0.136428538617481</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.5500203371048</v>
+        <v>15.54526686668396</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.02635032497346401</v>
+        <v>0.026356133</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1366859823465347</v>
+        <v>0.13667014</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2255975306034088</v>
+        <v>0.22564213</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1623278317894501</v>
+        <v>0.1623457196880759</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>20.13252079486847</v>
+        <v>20.12988179922104</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04945443470418908</v>
+        <v>0.0530223689537855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1762570462213097</v>
+        <v>0.1835588770590988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3675329711099494</v>
+        <v>0.4922668490530529</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2223835306496169</v>
+        <v>0.2302658658025231</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.66420003190955</v>
+        <v>31.70538586280119</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04945666259715727</v>
+        <v>0.053032272805251</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1762713795681788</v>
+        <v>0.1835697800602075</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3675371497950072</v>
+        <v>0.4922805241407315</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2223885397163201</v>
+        <v>0.2302873700515315</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.66661777314427</v>
+        <v>31.70707440798806</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28706,19 +28706,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05016421035023868</v>
+        <v>0.0535848287075955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1779620624788568</v>
+        <v>0.184779895671706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3714125642024546</v>
+        <v>0.4966655474129958</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2239736822714639</v>
+        <v>0.2314839707357629</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.9286835700689</v>
+        <v>31.88538743622637</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28736,19 +28736,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05016421035023868</v>
+        <v>0.0535848287075955</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1779620624788568</v>
+        <v>0.184779895671706</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3714125642024546</v>
+        <v>0.4966655474129958</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2239736822714639</v>
+        <v>0.2314839707357629</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.9286835700689</v>
+        <v>31.88538743622637</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28850,19 +28850,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05335535854101181</v>
+        <v>0.053355347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1803721636533737</v>
+        <v>0.18037216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5920311808586121</v>
+        <v>0.5920310600000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.230987788727049</v>
+        <v>0.2309877645355721</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>30.38658499717712</v>
+        <v>30.3865909576416</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28880,16 +28880,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05167767405509949</v>
+        <v>0.051677663</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1794180572032928</v>
+        <v>0.17941804</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4649857580661774</v>
+        <v>0.46498576</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2273272400199754</v>
+        <v>0.2273272154389539</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>31.13827109336853</v>
@@ -28912,19 +28912,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03219488635659218</v>
+        <v>0.032194898</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1516962647438049</v>
+        <v>0.15169626</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2632910013198853</v>
+        <v>0.26329094</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1794293352732272</v>
+        <v>0.1794293664160442</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.63902276754379</v>
+        <v>22.6390227675438</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28942,16 +28942,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03430976718664169</v>
+        <v>0.034309767</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1536291688680649</v>
+        <v>0.15362917</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.266381174325943</v>
+        <v>0.26638117</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1852289588229705</v>
+        <v>0.1852289588229704</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>22.91302680969238</v>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05054689943790436</v>
+        <v>0.05039637</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1773865818977356</v>
+        <v>0.17684512</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5651491284370422</v>
+        <v>0.56302917</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2248263762059611</v>
+        <v>0.2244913620449891</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.13588786125183</v>
+        <v>30.06896078586578</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05860491096973419</v>
+        <v>0.057329737</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1876378506422043</v>
+        <v>0.18597597</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6351377964019775</v>
+        <v>0.62841856</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2420845120401844</v>
+        <v>0.2394362893339063</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.13279044628143</v>
+        <v>30.94658255577088</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03853294201285304</v>
+        <v>0.0414014988219125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1568137925134822</v>
+        <v>0.162848987068173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2434146469468482</v>
+        <v>0.3276876652873832</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1962980947764217</v>
+        <v>0.2034735826143348</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.04336595950461</v>
+        <v>26.96118263358123</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0385306773744275</v>
+        <v>0.0413948009125666</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.156840536188095</v>
+        <v>0.1628340671380795</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2434525177214937</v>
+        <v>0.3276636806397266</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1962923263258844</v>
+        <v>0.203457123032266</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>24.04791896207513</v>
+        <v>26.95874048308232</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30014,23 +30014,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03123995660583838</v>
+        <v>0.0417904533094987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1423828769449949</v>
+        <v>0.1639137522339672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2456902103357757</v>
+        <v>0.3302368477649476</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1767482860053765</v>
+        <v>0.2044271344746062</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.79476890594404</v>
+        <v>27.13095279106868</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30048,19 +30048,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03928414323802915</v>
+        <v>0.0417904533094987</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1583265585977369</v>
+        <v>0.1639137522339672</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2457944721322727</v>
+        <v>0.3302368477649476</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1982022785893975</v>
+        <v>0.2044271344746062</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.28600325196454</v>
+        <v>27.13095279106868</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30162,19 +30162,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05435093492269516</v>
+        <v>0.054350935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1923228651285172</v>
+        <v>0.19232287</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3463313579559326</v>
+        <v>0.34633142</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2331328696745595</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.20230638980865</v>
+        <v>32.20230937004089</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30192,19 +30192,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04795845225453377</v>
+        <v>0.04795846</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1674647033214569</v>
+        <v>0.1674647</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4205001592636108</v>
+        <v>0.42050022</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2189941831522786</v>
+        <v>0.2189942001631878</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.67711675167084</v>
+        <v>26.67711973190308</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02903576381504536</v>
+        <v>0.029033639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1508589833974838</v>
+        <v>0.15085624</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2400277405977249</v>
+        <v>0.24002269</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1703988374814962</v>
+        <v>0.1703926011801277</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.84252142906189</v>
+        <v>21.84215039014816</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30254,19 +30254,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02110816910862923</v>
+        <v>0.021108164</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1245515868067741</v>
+        <v>0.124551564</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2065552473068237</v>
+        <v>0.20655522</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1452865069737353</v>
+        <v>0.1452864877429893</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.28325241804123</v>
+        <v>18.28325390815735</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04428661242127419</v>
+        <v>0.044123836</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1673086434602737</v>
+        <v>0.16725734</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4127398431301117</v>
+        <v>0.4122582</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2104438462423508</v>
+        <v>0.2100567443851372</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.86772048473358</v>
+        <v>26.86080038547516</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03735621646046638</v>
+        <v>0.03736362</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1511462479829788</v>
+        <v>0.15116122</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3544941246509552</v>
+        <v>0.35457617</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1932775632619223</v>
+        <v>0.1932967113333525</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.87400323152542</v>
+        <v>24.87570494413376</v>
       </c>
     </row>
   </sheetData>
